--- a/results_v1/res_line/loading_percent.xlsx
+++ b/results_v1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -394,629 +394,704 @@
       <c r="H1" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45.12247575605898</v>
+        <v>23.09590381011856</v>
       </c>
       <c r="C2">
-        <v>0.7438674268480077</v>
+        <v>16.50615901898044</v>
       </c>
       <c r="D2">
-        <v>32.61629844293255</v>
+        <v>28.395937735851</v>
       </c>
       <c r="E2">
-        <v>30.36047600173489</v>
+        <v>15.90243127028883</v>
       </c>
       <c r="F2">
-        <v>36.26977000664674</v>
+        <v>15.02677917952021</v>
       </c>
       <c r="G2">
-        <v>47.61800163954948</v>
+        <v>33.41456201323382</v>
       </c>
       <c r="H2">
-        <v>26.88543756307639</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>46.24644367310022</v>
+      </c>
+      <c r="I2">
+        <v>27.42333887275939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>43.8770449565361</v>
+        <v>26.98515826540324</v>
       </c>
       <c r="C3">
-        <v>0.7439221907481041</v>
+        <v>21.94927218709299</v>
       </c>
       <c r="D3">
-        <v>32.3280964224413</v>
+        <v>31.73157740634178</v>
       </c>
       <c r="E3">
-        <v>29.17866604513921</v>
+        <v>21.48291587658675</v>
       </c>
       <c r="F3">
-        <v>35.77839789052552</v>
+        <v>19.36283370551724</v>
       </c>
       <c r="G3">
-        <v>47.65129178449491</v>
+        <v>35.16786060142411</v>
       </c>
       <c r="H3">
-        <v>26.89080813518408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>46.9397247984392</v>
+      </c>
+      <c r="I3">
+        <v>26.54423938519825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54.92120820673728</v>
+        <v>32.86858727731489</v>
       </c>
       <c r="C4">
-        <v>0.7441407025823463</v>
+        <v>26.8498918890881</v>
       </c>
       <c r="D4">
-        <v>33.91679486794748</v>
+        <v>33.57777723048975</v>
       </c>
       <c r="E4">
-        <v>34.37582105979322</v>
+        <v>26.45959544674511</v>
       </c>
       <c r="F4">
-        <v>37.31742341916068</v>
+        <v>22.92315382564809</v>
       </c>
       <c r="G4">
-        <v>47.80905041629045</v>
+        <v>36.61299623892194</v>
       </c>
       <c r="H4">
-        <v>26.63571844606848</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>47.18549638799186</v>
+      </c>
+      <c r="I4">
+        <v>26.15262924333475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>47.7134984727985</v>
+        <v>26.10486233257442</v>
       </c>
       <c r="C5">
-        <v>0.7447003524484168</v>
+        <v>21.03311465965313</v>
       </c>
       <c r="D5">
-        <v>32.15043196504832</v>
+        <v>31.61537919835147</v>
       </c>
       <c r="E5">
-        <v>30.91832471019235</v>
+        <v>20.54733548597182</v>
       </c>
       <c r="F5">
-        <v>35.84352943250002</v>
+        <v>18.64674877428108</v>
       </c>
       <c r="G5">
-        <v>47.1339632256288</v>
+        <v>35.66368122769691</v>
       </c>
       <c r="H5">
-        <v>26.67321533764374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>46.41058104159191</v>
+      </c>
+      <c r="I5">
+        <v>26.45024125587826</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>32.14447023768498</v>
+        <v>33.28754368105057</v>
       </c>
       <c r="C6">
-        <v>0.7430666720523086</v>
+        <v>26.87899481507243</v>
       </c>
       <c r="D6">
-        <v>29.83035474136237</v>
+        <v>33.11717652384171</v>
       </c>
       <c r="E6">
-        <v>21.50667820889686</v>
+        <v>26.4911161967189</v>
       </c>
       <c r="F6">
-        <v>34.1522230669342</v>
+        <v>22.69107306241788</v>
       </c>
       <c r="G6">
-        <v>46.69014321144996</v>
+        <v>37.09153833937388</v>
       </c>
       <c r="H6">
-        <v>27.11904520552966</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>46.35979481807019</v>
+      </c>
+      <c r="I6">
+        <v>26.06289614634724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>48.47112258849941</v>
+        <v>23.31386327545692</v>
       </c>
       <c r="C7">
-        <v>0.7449546687876827</v>
+        <v>17.50392683785016</v>
       </c>
       <c r="D7">
-        <v>31.87761197270732</v>
+        <v>28.71675888095729</v>
       </c>
       <c r="E7">
-        <v>31.44165544793605</v>
+        <v>16.93647789344606</v>
       </c>
       <c r="F7">
-        <v>35.87736666596211</v>
+        <v>15.72476122513163</v>
       </c>
       <c r="G7">
-        <v>46.86487172981545</v>
+        <v>33.75466552373617</v>
       </c>
       <c r="H7">
-        <v>26.6694217670983</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>45.71656945333249</v>
+      </c>
+      <c r="I7">
+        <v>27.00187147960915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30.55149667380502</v>
+        <v>25.09149218370349</v>
       </c>
       <c r="C8">
-        <v>0.7429093862783993</v>
+        <v>20.69374054089831</v>
       </c>
       <c r="D8">
-        <v>29.45863161909213</v>
+        <v>30.28031509148166</v>
       </c>
       <c r="E8">
-        <v>20.71200388119282</v>
+        <v>20.20926099425469</v>
       </c>
       <c r="F8">
-        <v>33.55533424083102</v>
+        <v>19.24930789434834</v>
       </c>
       <c r="G8">
-        <v>46.706707778611</v>
+        <v>33.82361808110693</v>
       </c>
       <c r="H8">
-        <v>27.12260005418025</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>46.1687928709998</v>
+      </c>
+      <c r="I8">
+        <v>26.37980859223401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.85170652385176</v>
+        <v>33.26967314732185</v>
       </c>
       <c r="C9">
-        <v>0.7414491424188107</v>
+        <v>13.5040685847477</v>
       </c>
       <c r="D9">
-        <v>27.38271072258503</v>
+        <v>22.04709193475043</v>
       </c>
       <c r="E9">
-        <v>15.85372343364953</v>
+        <v>12.81023349548923</v>
       </c>
       <c r="F9">
-        <v>31.45577093513111</v>
+        <v>7.785735697929939</v>
       </c>
       <c r="G9">
-        <v>46.62472596595569</v>
+        <v>28.2829910628374</v>
       </c>
       <c r="H9">
-        <v>27.50624335131101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>45.06294143342638</v>
+      </c>
+      <c r="I9">
+        <v>28.46084586928274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.88620566433035</v>
+        <v>23.48648925195709</v>
       </c>
       <c r="C10">
-        <v>0.7408294770916758</v>
+        <v>16.29284766333306</v>
       </c>
       <c r="D10">
-        <v>26.21114910971103</v>
+        <v>29.18890299576902</v>
       </c>
       <c r="E10">
-        <v>13.89442555419366</v>
+        <v>15.6829948875717</v>
       </c>
       <c r="F10">
-        <v>30.95778121374188</v>
+        <v>15.57717093358801</v>
       </c>
       <c r="G10">
-        <v>46.39510897714865</v>
+        <v>33.07013775926463</v>
       </c>
       <c r="H10">
-        <v>27.86706456561706</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>46.10674017344999</v>
+      </c>
+      <c r="I10">
+        <v>26.70277846157103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.31259550232172</v>
+        <v>23.15955692041102</v>
       </c>
       <c r="C11">
-        <v>0.7417028002103599</v>
+        <v>15.85186497605342</v>
       </c>
       <c r="D11">
-        <v>27.09500903128404</v>
+        <v>27.87457013694329</v>
       </c>
       <c r="E11">
-        <v>16.07820800557743</v>
+        <v>15.23413611283412</v>
       </c>
       <c r="F11">
-        <v>30.79134215891204</v>
+        <v>15.11085179854471</v>
       </c>
       <c r="G11">
-        <v>46.68886865843404</v>
+        <v>31.85951009721579</v>
       </c>
       <c r="H11">
-        <v>27.46458037457273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>45.91787571167451</v>
+      </c>
+      <c r="I11">
+        <v>26.90448528609236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>54.79283296508341</v>
+        <v>28.81015668624864</v>
       </c>
       <c r="C12">
-        <v>0.7321446038297996</v>
+        <v>12.67984859026287</v>
       </c>
       <c r="D12">
-        <v>21.45776440209125</v>
+        <v>24.05939794738768</v>
       </c>
       <c r="E12">
-        <v>11.34834994981747</v>
+        <v>11.92426627336822</v>
       </c>
       <c r="F12">
-        <v>27.74578587965945</v>
+        <v>9.2738975840547</v>
       </c>
       <c r="G12">
-        <v>46.30654187715081</v>
+        <v>29.78593128665531</v>
       </c>
       <c r="H12">
-        <v>29.44992512355365</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>45.32251603128415</v>
+      </c>
+      <c r="I12">
+        <v>28.00257451688565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.51501840663954</v>
+        <v>22.76294858964347</v>
       </c>
       <c r="C13">
-        <v>0.7414078961165584</v>
+        <v>15.69015132939762</v>
       </c>
       <c r="D13">
-        <v>24.78886766294234</v>
+        <v>26.9039838081897</v>
       </c>
       <c r="E13">
-        <v>13.32253595547538</v>
+        <v>15.07036681168165</v>
       </c>
       <c r="F13">
-        <v>30.6210926428158</v>
+        <v>14.64004772158715</v>
       </c>
       <c r="G13">
-        <v>45.93738705941517</v>
+        <v>31.64544536728075</v>
       </c>
       <c r="H13">
-        <v>28.28909421509218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>45.5962538414722</v>
+      </c>
+      <c r="I13">
+        <v>27.20000602070303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.52370620373868</v>
+        <v>25.28862116264748</v>
       </c>
       <c r="C14">
-        <v>0.7417998954675754</v>
+        <v>13.14329410625725</v>
       </c>
       <c r="D14">
-        <v>26.24620410442592</v>
+        <v>26.4667004589225</v>
       </c>
       <c r="E14">
-        <v>15.63299624405837</v>
+        <v>12.39778990606858</v>
       </c>
       <c r="F14">
-        <v>31.35922457504042</v>
+        <v>11.0603685897281</v>
       </c>
       <c r="G14">
-        <v>46.25584241867908</v>
+        <v>31.55957507838609</v>
       </c>
       <c r="H14">
-        <v>27.90843584535618</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>45.67836384160306</v>
+      </c>
+      <c r="I14">
+        <v>27.47558789927365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.71932263840157</v>
+        <v>26.07515781982498</v>
       </c>
       <c r="C15">
-        <v>0.7438721660012695</v>
+        <v>13.24503390752614</v>
       </c>
       <c r="D15">
-        <v>28.66173241024589</v>
+        <v>26.55964373228549</v>
       </c>
       <c r="E15">
-        <v>22.79330478853118</v>
+        <v>12.51033741960653</v>
       </c>
       <c r="F15">
-        <v>33.14453156437117</v>
+        <v>12.10509690696438</v>
       </c>
       <c r="G15">
-        <v>46.54928797020469</v>
+        <v>30.71510179577437</v>
       </c>
       <c r="H15">
-        <v>27.33905785262105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>45.91720901893952</v>
+      </c>
+      <c r="I15">
+        <v>27.24973622299117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.98844521665008</v>
+        <v>24.60295037006679</v>
       </c>
       <c r="C16">
-        <v>0.7414586844993714</v>
+        <v>14.31110283432101</v>
       </c>
       <c r="D16">
-        <v>26.04759107210085</v>
+        <v>26.64691061051968</v>
       </c>
       <c r="E16">
-        <v>14.14491720670122</v>
+        <v>13.62951131394329</v>
       </c>
       <c r="F16">
-        <v>30.08392758381711</v>
+        <v>13.87491423093119</v>
       </c>
       <c r="G16">
-        <v>46.59769180892341</v>
+        <v>31.56387512879638</v>
       </c>
       <c r="H16">
-        <v>27.7620874515143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>45.69432114297884</v>
+      </c>
+      <c r="I16">
+        <v>27.38684904450587</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.52787816358835</v>
+        <v>22.9552996001441</v>
       </c>
       <c r="C17">
-        <v>0.7429713853777736</v>
+        <v>15.90726530125106</v>
       </c>
       <c r="D17">
-        <v>30.51919375780983</v>
+        <v>27.63975614269072</v>
       </c>
       <c r="E17">
-        <v>23.20135310435827</v>
+        <v>15.29466604440265</v>
       </c>
       <c r="F17">
-        <v>34.3671411242867</v>
+        <v>15.08404568718365</v>
       </c>
       <c r="G17">
-        <v>47.00302288707226</v>
+        <v>31.14332253807068</v>
       </c>
       <c r="H17">
-        <v>26.99737193953062</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>46.08203763069984</v>
+      </c>
+      <c r="I17">
+        <v>26.87778616152216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>33.50224741259264</v>
+        <v>25.15878694987257</v>
       </c>
       <c r="C18">
-        <v>0.7441169185834549</v>
+        <v>13.40961510526298</v>
       </c>
       <c r="D18">
-        <v>29.29205655595454</v>
+        <v>25.9622396110469</v>
       </c>
       <c r="E18">
-        <v>24.5863615899589</v>
+        <v>12.68946038612419</v>
       </c>
       <c r="F18">
-        <v>33.41217781421739</v>
+        <v>12.46500771670105</v>
       </c>
       <c r="G18">
-        <v>46.71717296583329</v>
+        <v>30.2151856092392</v>
       </c>
       <c r="H18">
-        <v>27.17484875914302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>45.81120528943791</v>
+      </c>
+      <c r="I18">
+        <v>27.35056586156702</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.98148525277281</v>
+        <v>26.3596245825633</v>
       </c>
       <c r="C19">
-        <v>0.738919413502484</v>
+        <v>13.31316591746644</v>
       </c>
       <c r="D19">
-        <v>25.31923354770137</v>
+        <v>26.67905355507782</v>
       </c>
       <c r="E19">
-        <v>11.12116332657523</v>
+        <v>12.5817652581989</v>
       </c>
       <c r="F19">
-        <v>30.72214134099082</v>
+        <v>12.42304602014004</v>
       </c>
       <c r="G19">
-        <v>46.45537857890432</v>
+        <v>30.5676768894346</v>
       </c>
       <c r="H19">
-        <v>28.35765705067176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>46.08800228020034</v>
+      </c>
+      <c r="I19">
+        <v>27.2345950299566</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.64116969885114</v>
+        <v>24.25866072664074</v>
       </c>
       <c r="C20">
-        <v>0.7423744289757193</v>
+        <v>15.04994652836343</v>
       </c>
       <c r="D20">
-        <v>27.94968294681204</v>
+        <v>28.56868235308548</v>
       </c>
       <c r="E20">
-        <v>18.63030788855504</v>
+        <v>14.38973234446453</v>
       </c>
       <c r="F20">
-        <v>31.91962937615085</v>
+        <v>14.46651914185992</v>
       </c>
       <c r="G20">
-        <v>46.91383153190219</v>
+        <v>32.67820471090746</v>
       </c>
       <c r="H20">
-        <v>27.5394909489516</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>46.30495612694185</v>
+      </c>
+      <c r="I20">
+        <v>27.06048696643575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.05810420932048</v>
+        <v>35.98065592200184</v>
       </c>
       <c r="C21">
-        <v>0.7415064605872227</v>
+        <v>13.57459693629281</v>
       </c>
       <c r="D21">
-        <v>25.32517230664563</v>
+        <v>21.92535386081764</v>
       </c>
       <c r="E21">
-        <v>14.20995535188811</v>
+        <v>12.88828628736113</v>
       </c>
       <c r="F21">
-        <v>29.46658702075591</v>
+        <v>7.977183968360076</v>
       </c>
       <c r="G21">
-        <v>46.73972610750068</v>
+        <v>27.15665869381654</v>
       </c>
       <c r="H21">
-        <v>28.05587614775573</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>45.64334964773137</v>
+      </c>
+      <c r="I21">
+        <v>28.48663855095813</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.94201474294078</v>
+        <v>26.96360486878928</v>
       </c>
       <c r="C22">
-        <v>0.7386626415656277</v>
+        <v>13.10124675387367</v>
       </c>
       <c r="D22">
-        <v>23.8180875751233</v>
+        <v>25.68526135471428</v>
       </c>
       <c r="E22">
-        <v>9.885479438312617</v>
+        <v>12.36490645989855</v>
       </c>
       <c r="F22">
-        <v>28.62947204005193</v>
+        <v>12.39236578026348</v>
       </c>
       <c r="G22">
-        <v>46.68314213613096</v>
+        <v>29.47168900407489</v>
       </c>
       <c r="H22">
-        <v>28.60606806402717</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>46.19757786077294</v>
+      </c>
+      <c r="I22">
+        <v>27.48746715498556</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.76336748440135</v>
+        <v>25.8606579311779</v>
       </c>
       <c r="C23">
-        <v>0.7409402263551542</v>
+        <v>13.52498698831232</v>
       </c>
       <c r="D23">
-        <v>27.84841018408397</v>
+        <v>27.48828519560026</v>
       </c>
       <c r="E23">
-        <v>16.44173385231549</v>
+        <v>12.79848437095358</v>
       </c>
       <c r="F23">
-        <v>32.81329283759985</v>
+        <v>12.46419967425738</v>
       </c>
       <c r="G23">
-        <v>46.80334839310827</v>
+        <v>31.06310510348672</v>
       </c>
       <c r="H23">
-        <v>27.87538798776115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>46.41399740866379</v>
+      </c>
+      <c r="I23">
+        <v>27.15467627331763</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.19667671296308</v>
+        <v>25.49364656527312</v>
       </c>
       <c r="C24">
-        <v>0.7429574259502333</v>
+        <v>14.02089845762558</v>
       </c>
       <c r="D24">
-        <v>28.04849235646382</v>
+        <v>27.65560690712837</v>
       </c>
       <c r="E24">
-        <v>20.16755715982487</v>
+        <v>13.31710446196822</v>
       </c>
       <c r="F24">
-        <v>31.80914818574787</v>
+        <v>13.39942584955322</v>
       </c>
       <c r="G24">
-        <v>47.20806302626025</v>
+        <v>31.42451522514859</v>
       </c>
       <c r="H24">
-        <v>27.63588356885905</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>46.60104652927375</v>
+      </c>
+      <c r="I24">
+        <v>27.32449665938327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>43.6582418733891</v>
+        <v>24.21358288445986</v>
       </c>
       <c r="C25">
-        <v>0.743186144369295</v>
+        <v>14.18227272367761</v>
       </c>
       <c r="D25">
-        <v>33.14340441220489</v>
+        <v>27.56121994595123</v>
       </c>
       <c r="E25">
-        <v>30.00650345330447</v>
+        <v>13.47955957265145</v>
       </c>
       <c r="F25">
-        <v>36.47958744343278</v>
+        <v>12.70789412277334</v>
       </c>
       <c r="G25">
-        <v>48.17087080539172</v>
+        <v>32.42591236700289</v>
       </c>
       <c r="H25">
-        <v>27.02269644952835</v>
+        <v>46.67950678993591</v>
+      </c>
+      <c r="I25">
+        <v>27.83241800688242</v>
       </c>
     </row>
   </sheetData>
